--- a/Projet/code_retour.xlsx
+++ b/Projet/code_retour.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9E1778-4BB5-482F-A5EF-C50D65F19693}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3940FCB5-EBB3-4613-B322-F09DC0983918}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Code de retour</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>mauvais argument saisi</t>
+  </si>
+  <si>
+    <t>Probléme allocation mémoire</t>
   </si>
 </sst>
 </file>
@@ -358,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="A7:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -411,93 +414,11 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B6" s="1">
         <v>-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="1">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="1">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="1">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="1">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="1">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B12" s="1">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B13" s="1">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B14" s="1">
-        <v>-11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B15" s="1">
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B16" s="1">
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" s="1">
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B18" s="1">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" s="1">
-        <v>-16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="1">
-        <v>-17</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="1">
-        <v>-18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="1">
-        <v>-19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B23" s="1">
-        <v>-20</v>
       </c>
     </row>
   </sheetData>
